--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190608-chases/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190602-chases/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223F0988-D278-DE42-897A-EBA0E4ED4F40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C7F0E0-93AB-B348-B5CD-12DF445CEB2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="880" windowWidth="25540" windowHeight="17940" xr2:uid="{FF4B5E82-3112-4580-9895-D447029EAFE1}"/>
+    <workbookView xWindow="36260" yWindow="3120" windowWidth="25540" windowHeight="17940" xr2:uid="{FF4B5E82-3112-4580-9895-D447029EAFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="breakdowns" sheetId="14" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4824" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -316,11 +316,20 @@
   <si>
     <t>termination reason vs. miles covered</t>
   </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>was anyone charged?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB79576-C39C-EA49-89BA-D3D76D761D04}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,7 +748,7 @@
     <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -746,7 +756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -765,7 +775,9 @@
       <c r="F2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>85</v>
@@ -785,170 +797,253 @@
       <c r="N2" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
       </c>
       <c r="F3" s="10">
+        <v>465</v>
+      </c>
+      <c r="G3" s="13">
+        <f>F3/465</f>
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="K3">
+        <v>160</v>
+      </c>
+      <c r="L3">
+        <v>160</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>465</v>
+      </c>
+      <c r="O3" s="13">
+        <f>N3/465</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>130</v>
+      </c>
+      <c r="G4" s="13">
+        <f>F4/465</f>
+        <v>0.27956989247311825</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>76</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>216</v>
+      </c>
+      <c r="O4" s="13">
+        <f>N4/465</f>
+        <v>0.46451612903225808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>29</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>36</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>38</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
         <v>105</v>
       </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G5" s="13">
+        <f>F5/465</f>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>52</v>
+      </c>
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10">
+        <v>150</v>
+      </c>
+      <c r="O5" s="13">
+        <f>N5/465</f>
+        <v>0.32258064516129031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>77</v>
+      </c>
+      <c r="G6" s="13">
+        <f>F6/465</f>
+        <v>0.16559139784946236</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="N6" s="10">
+        <v>52</v>
+      </c>
+      <c r="O6" s="13">
+        <f>N6/465</f>
+        <v>0.11182795698924732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>71</v>
+      </c>
+      <c r="G7" s="13">
+        <f>F7/465</f>
+        <v>0.15268817204301074</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="10">
+        <v>7</v>
+      </c>
+      <c r="O7" s="13">
+        <f>N7/465</f>
+        <v>1.5053763440860216E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F8" s="10">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="N7" s="10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>77</v>
+      <c r="G8" s="13">
+        <f>F8/465</f>
+        <v>7.3118279569892475E-2</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -965,296 +1060,373 @@
       <c r="N8" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="13">
+        <f>N8/465</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="C9" s="12">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>27</v>
+      </c>
+      <c r="G9" s="13">
+        <f>F9/465</f>
+        <v>5.8064516129032261E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="10">
+        <v>6</v>
+      </c>
+      <c r="O9" s="13">
+        <f>N9/465</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13">
+        <f>F10/465</f>
+        <v>2.1505376344086023E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
+        <v>6</v>
+      </c>
+      <c r="O10" s="13">
+        <f>N10/465</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9</v>
+      </c>
+      <c r="G11" s="13">
+        <f>F11/465</f>
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <v>5</v>
+      </c>
+      <c r="O11" s="13">
+        <f>N11/465</f>
+        <v>1.0752688172043012E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <f>F12/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <v>3</v>
+      </c>
+      <c r="O12" s="13">
+        <f>N12/465</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <f>F13/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+      <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3</v>
+      </c>
+      <c r="O13" s="13">
+        <f>N13/465</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2</v>
+      </c>
+      <c r="O14" s="13">
+        <f>N14/465</f>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
+        <v>2</v>
+      </c>
+      <c r="O15" s="13">
+        <f>N15/465</f>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13">
+        <f>N16/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13">
+        <f>N17/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18" s="13">
+        <f>B18/465</f>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13">
+        <f>N18/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>155</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:C20" si="0">B19/465</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I19" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13">
+        <f>N19/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>250</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="I20" t="s">
         <v>56</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10">
-        <v>130</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="N12" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13">
-        <v>128</v>
-      </c>
-      <c r="C13">
-        <v>160</v>
-      </c>
-      <c r="D13">
-        <v>160</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13" s="10">
-        <v>465</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="N13" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13">
+        <f>N20/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="13">
+        <f>N21/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
         <v>52</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <v>43</v>
-      </c>
-      <c r="K15">
-        <v>52</v>
-      </c>
-      <c r="L15">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="N17" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19">
-        <v>55</v>
-      </c>
-      <c r="K19">
-        <v>76</v>
-      </c>
-      <c r="L19">
-        <v>80</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19" s="10">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="N21" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>81</v>
-      </c>
       <c r="J22">
-        <v>128</v>
-      </c>
-      <c r="K22">
-        <v>160</v>
-      </c>
-      <c r="L22">
-        <v>160</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+      <c r="O22" s="13">
+        <f>N22/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1274,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1293,8 +1465,12 @@
       <c r="F25" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G25" s="13">
+        <f>F25/465</f>
+        <v>9.2473118279569888E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +1489,12 @@
       <c r="F26" s="10">
         <v>381</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G26" s="13">
+        <f t="shared" ref="G26:G28" si="1">F26/465</f>
+        <v>0.8193548387096774</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1333,8 +1513,12 @@
       <c r="F27" s="10">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G27" s="13">
+        <f t="shared" si="1"/>
+        <v>8.8172043010752682E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1353,8 +1537,12 @@
       <c r="F28" s="11">
         <v>465</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1362,7 +1550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1400,7 +1588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1409,6 +1597,10 @@
       </c>
       <c r="F33" s="10">
         <v>2</v>
+      </c>
+      <c r="G33" s="13">
+        <f>F33/465</f>
+        <v>4.3010752688172043E-3</v>
       </c>
       <c r="I33" t="s">
         <v>69</v>
@@ -1419,8 +1611,12 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="13">
+        <f>N33/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1439,6 +1635,10 @@
       <c r="F34" s="10">
         <v>250</v>
       </c>
+      <c r="G34" s="13">
+        <f t="shared" ref="G34:G49" si="2">F34/465</f>
+        <v>0.5376344086021505</v>
+      </c>
       <c r="I34">
         <v>3</v>
       </c>
@@ -1448,8 +1648,12 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="13">
+        <f t="shared" ref="O34:O97" si="3">N34/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1468,6 +1672,10 @@
       <c r="F35" s="10">
         <v>108</v>
       </c>
+      <c r="G35" s="13">
+        <f t="shared" si="2"/>
+        <v>0.23225806451612904</v>
+      </c>
       <c r="I35" t="s">
         <v>27</v>
       </c>
@@ -1486,8 +1694,12 @@
       <c r="N35">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.22580645161290322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1506,6 +1718,10 @@
       <c r="F36" s="10">
         <v>43</v>
       </c>
+      <c r="G36" s="13">
+        <f t="shared" si="2"/>
+        <v>9.2473118279569888E-2</v>
+      </c>
       <c r="I36">
         <v>1</v>
       </c>
@@ -1521,8 +1737,12 @@
       <c r="N36">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.12043010752688173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1538,6 +1758,10 @@
       <c r="F37" s="10">
         <v>13</v>
       </c>
+      <c r="G37" s="13">
+        <f t="shared" si="2"/>
+        <v>2.7956989247311829E-2</v>
+      </c>
       <c r="I37">
         <v>2</v>
       </c>
@@ -1553,8 +1777,12 @@
       <c r="N37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="13">
+        <f t="shared" si="3"/>
+        <v>6.0215053763440864E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1573,6 +1801,10 @@
       <c r="F38" s="10">
         <v>21</v>
       </c>
+      <c r="G38" s="13">
+        <f t="shared" si="2"/>
+        <v>4.5161290322580643E-2</v>
+      </c>
       <c r="I38">
         <v>3</v>
       </c>
@@ -1588,8 +1820,12 @@
       <c r="N38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="13">
+        <f t="shared" si="3"/>
+        <v>1.935483870967742E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1605,6 +1841,10 @@
       <c r="F39" s="10">
         <v>6</v>
       </c>
+      <c r="G39" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2903225806451613E-2</v>
+      </c>
       <c r="I39">
         <v>4</v>
       </c>
@@ -1620,8 +1860,12 @@
       <c r="N39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0752688172043012E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1637,6 +1881,10 @@
       <c r="F40" s="10">
         <v>4</v>
       </c>
+      <c r="G40" s="13">
+        <f t="shared" si="2"/>
+        <v>8.6021505376344086E-3</v>
+      </c>
       <c r="I40">
         <v>5</v>
       </c>
@@ -1649,8 +1897,12 @@
       <c r="N40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1663,6 +1915,10 @@
       <c r="F41" s="10">
         <v>3</v>
       </c>
+      <c r="G41" s="13">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258064E-3</v>
+      </c>
       <c r="I41">
         <v>6</v>
       </c>
@@ -1672,8 +1928,12 @@
       <c r="N41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1686,6 +1946,10 @@
       <c r="F42" s="10">
         <v>2</v>
       </c>
+      <c r="G42" s="13">
+        <f t="shared" si="2"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
       <c r="I42">
         <v>7</v>
       </c>
@@ -1698,8 +1962,12 @@
       <c r="N42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1718,6 +1986,10 @@
       <c r="F43" s="10">
         <v>6</v>
       </c>
+      <c r="G43" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2903225806451613E-2</v>
+      </c>
       <c r="I43">
         <v>8</v>
       </c>
@@ -1727,8 +1999,12 @@
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>12</v>
       </c>
@@ -1738,6 +2014,10 @@
       <c r="F44" s="10">
         <v>1</v>
       </c>
+      <c r="G44" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
       <c r="I44">
         <v>12</v>
       </c>
@@ -1747,8 +2027,12 @@
       <c r="N44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>14</v>
       </c>
@@ -1758,6 +2042,10 @@
       <c r="F45" s="10">
         <v>1</v>
       </c>
+      <c r="G45" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
       <c r="I45" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +2064,12 @@
       <c r="N45">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="13">
+        <f t="shared" si="3"/>
+        <v>7.3118279569892475E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>15</v>
       </c>
@@ -1787,6 +2079,10 @@
       <c r="F46" s="10">
         <v>1</v>
       </c>
+      <c r="G46" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
       <c r="I46">
         <v>1</v>
       </c>
@@ -1805,8 +2101,12 @@
       <c r="N46">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="13">
+        <f t="shared" si="3"/>
+        <v>4.9462365591397849E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1815,6 +2115,10 @@
       </c>
       <c r="F47" s="10">
         <v>1</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1505376344086021E-3</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -1834,8 +2138,12 @@
       <c r="N47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="13">
+        <f t="shared" si="3"/>
+        <v>1.7204301075268817E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20</v>
       </c>
@@ -1845,6 +2153,10 @@
       <c r="F48" s="10">
         <v>3</v>
       </c>
+      <c r="G48" s="13">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258064E-3</v>
+      </c>
       <c r="I48">
         <v>3</v>
       </c>
@@ -1857,8 +2169,12 @@
       <c r="N48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -1877,6 +2193,10 @@
       <c r="F49">
         <v>465</v>
       </c>
+      <c r="G49" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I49">
         <v>5</v>
       </c>
@@ -1886,8 +2206,12 @@
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
         <v>37</v>
       </c>
@@ -1906,8 +2230,12 @@
       <c r="N50">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="13">
+        <f t="shared" si="3"/>
+        <v>5.8064516129032261E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I51">
         <v>1</v>
       </c>
@@ -1926,8 +2254,12 @@
       <c r="N51">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="13">
+        <f t="shared" si="3"/>
+        <v>4.5161290322580643E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I52">
         <v>2</v>
       </c>
@@ -1943,8 +2275,12 @@
       <c r="N52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="13">
+        <f t="shared" si="3"/>
+        <v>8.6021505376344086E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I53">
         <v>5</v>
       </c>
@@ -1954,8 +2290,12 @@
       <c r="N53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I54">
         <v>6</v>
       </c>
@@ -1965,8 +2305,12 @@
       <c r="N54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I55" t="s">
         <v>45</v>
       </c>
@@ -1982,8 +2326,12 @@
       <c r="N55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="13">
+        <f t="shared" si="3"/>
+        <v>1.935483870967742E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I56">
         <v>1</v>
       </c>
@@ -1993,8 +2341,12 @@
       <c r="N56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I57">
         <v>2</v>
       </c>
@@ -2004,8 +2356,12 @@
       <c r="N57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I58">
         <v>3</v>
       </c>
@@ -2015,8 +2371,12 @@
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I59">
         <v>5</v>
       </c>
@@ -2026,8 +2386,12 @@
       <c r="N59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I60">
         <v>9</v>
       </c>
@@ -2037,8 +2401,12 @@
       <c r="N60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I61">
         <v>10</v>
       </c>
@@ -2051,8 +2419,12 @@
       <c r="N61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="13">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258064E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I62">
         <v>20</v>
       </c>
@@ -2062,8 +2434,12 @@
       <c r="N62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
         <v>21</v>
       </c>
@@ -2082,8 +2458,12 @@
       <c r="N63">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="13">
+        <f t="shared" si="3"/>
+        <v>0.16559139784946236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I64">
         <v>1</v>
       </c>
@@ -2102,8 +2482,12 @@
       <c r="N64">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="13">
+        <f t="shared" si="3"/>
+        <v>8.8172043010752682E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I65">
         <v>2</v>
       </c>
@@ -2119,8 +2503,12 @@
       <c r="N65">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="13">
+        <f t="shared" si="3"/>
+        <v>4.0860215053763443E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I66">
         <v>3</v>
       </c>
@@ -2136,8 +2524,12 @@
       <c r="N66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5053763440860216E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67">
         <v>4</v>
       </c>
@@ -2147,8 +2539,12 @@
       <c r="N67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68">
         <v>5</v>
       </c>
@@ -2164,8 +2560,12 @@
       <c r="N68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="13">
+        <f t="shared" si="3"/>
+        <v>8.6021505376344086E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I69">
         <v>6</v>
       </c>
@@ -2178,8 +2578,12 @@
       <c r="N69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I70">
         <v>10</v>
       </c>
@@ -2189,8 +2593,12 @@
       <c r="N70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71">
         <v>20</v>
       </c>
@@ -2200,8 +2608,12 @@
       <c r="N71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
         <v>18</v>
       </c>
@@ -2220,8 +2632,12 @@
       <c r="N72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15268817204301074</v>
+      </c>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I73">
         <v>1</v>
       </c>
@@ -2240,8 +2656,12 @@
       <c r="N73">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="13">
+        <f t="shared" si="3"/>
+        <v>4.7311827956989246E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I74">
         <v>2</v>
       </c>
@@ -2260,8 +2680,12 @@
       <c r="N74">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="13">
+        <f t="shared" si="3"/>
+        <v>6.236559139784946E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I75">
         <v>3</v>
       </c>
@@ -2280,8 +2704,12 @@
       <c r="N75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5053763440860216E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I76">
         <v>4</v>
       </c>
@@ -2294,8 +2722,12 @@
       <c r="N76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0752688172043012E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77">
         <v>5</v>
       </c>
@@ -2308,8 +2740,12 @@
       <c r="N77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="13">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258064E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78">
         <v>6</v>
       </c>
@@ -2319,8 +2755,12 @@
       <c r="N78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I79">
         <v>7</v>
       </c>
@@ -2330,8 +2770,12 @@
       <c r="N79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I80">
         <v>10</v>
       </c>
@@ -2341,8 +2785,12 @@
       <c r="N80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I81">
         <v>15</v>
       </c>
@@ -2352,8 +2800,12 @@
       <c r="N81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I82">
         <v>16</v>
       </c>
@@ -2363,8 +2815,12 @@
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" t="s">
         <v>35</v>
       </c>
@@ -2374,8 +2830,12 @@
       <c r="N83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84">
         <v>6</v>
       </c>
@@ -2385,8 +2845,12 @@
       <c r="N84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" t="s">
         <v>15</v>
       </c>
@@ -2405,8 +2869,12 @@
       <c r="N85">
         <v>130</v>
       </c>
-    </row>
-    <row r="86" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="13">
+        <f t="shared" si="3"/>
+        <v>0.27956989247311825</v>
+      </c>
+    </row>
+    <row r="86" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I86">
         <v>0</v>
       </c>
@@ -2416,8 +2884,12 @@
       <c r="N86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I87">
         <v>1</v>
       </c>
@@ -2436,8 +2908,12 @@
       <c r="N87">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="13">
+        <f t="shared" si="3"/>
+        <v>0.17849462365591398</v>
+      </c>
+    </row>
+    <row r="88" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I88">
         <v>2</v>
       </c>
@@ -2453,8 +2929,12 @@
       <c r="N88">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="13">
+        <f t="shared" si="3"/>
+        <v>3.870967741935484E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I89">
         <v>3</v>
       </c>
@@ -2470,8 +2950,12 @@
       <c r="N89">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="13">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I90">
         <v>5</v>
       </c>
@@ -2484,8 +2968,12 @@
       <c r="N90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5053763440860216E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I91">
         <v>8</v>
       </c>
@@ -2495,8 +2983,12 @@
       <c r="N91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="13">
+        <f t="shared" si="3"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I92">
         <v>10</v>
       </c>
@@ -2506,8 +2998,12 @@
       <c r="N92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I93">
         <v>14</v>
       </c>
@@ -2517,8 +3013,12 @@
       <c r="N93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I94">
         <v>20</v>
       </c>
@@ -2528,8 +3028,12 @@
       <c r="N94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" t="s">
         <v>47</v>
       </c>
@@ -2548,8 +3052,12 @@
       <c r="N95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086023E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96">
         <v>1</v>
       </c>
@@ -2565,8 +3073,12 @@
       <c r="N96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="13">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258064E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I97">
         <v>2</v>
       </c>
@@ -2576,8 +3088,12 @@
       <c r="N97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I98">
         <v>3</v>
       </c>
@@ -2587,8 +3103,12 @@
       <c r="N98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="13">
+        <f t="shared" ref="O98:O103" si="4">N98/465</f>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I99">
         <v>4</v>
       </c>
@@ -2598,8 +3118,12 @@
       <c r="N99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I100">
         <v>5</v>
       </c>
@@ -2612,8 +3136,12 @@
       <c r="N100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="13">
+        <f t="shared" si="4"/>
+        <v>4.3010752688172043E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I101">
         <v>7</v>
       </c>
@@ -2623,8 +3151,12 @@
       <c r="N101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I102">
         <v>9</v>
       </c>
@@ -2634,8 +3166,12 @@
       <c r="N102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="O102" s="13">
+        <f t="shared" si="4"/>
+        <v>2.1505376344086021E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I103" t="s">
         <v>81</v>
       </c>
@@ -2654,8 +3190,15 @@
       <c r="N103">
         <v>465</v>
       </c>
+      <c r="O103" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="I3:O22">
+    <sortCondition descending="1" ref="O2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2664,9 +3207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09A3785-7C79-4F10-98E7-1D3B907D9E45}">
   <dimension ref="A1:U466"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -30946,7 +31489,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190602-chases/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5C213-F2B0-A84C-9535-E0C0485ACBBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC21B4F-E319-D24D-B3CC-79D23A601614}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3940" yWindow="860" windowWidth="25540" windowHeight="17940" xr2:uid="{FF4B5E82-3112-4580-9895-D447029EAFE1}"/>
   </bookViews>
@@ -9101,9 +9101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09A3785-7C79-4F10-98E7-1D3B907D9E45}">
   <dimension ref="A1:U466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="A1:U466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -88694,7 +88694,7 @@
   <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M5" sqref="J5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
